--- a/pratica_01/custos.xlsx
+++ b/pratica_01/custos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\repo_01\pratica_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFAB515D-EF03-432F-AFD2-DEF9F9CD3FED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B8452D-DEF4-4F25-A026-FF56164970FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pacotes_trabalho" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Lista de Atividades</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>14. Atualizar controles de manutenção da aeronave e entregar aeronave</t>
+  </si>
+  <si>
+    <t>Total de Horas Trabalhadas</t>
   </si>
 </sst>
 </file>
@@ -466,7 +469,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81E5749-C048-4539-B022-55C84EFEB0B1}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -665,28 +668,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3288DA-1361-4722-B311-75FB7D3C822F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="37.140625" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="3" max="3" width="29.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <f>SUM(pacotes_trabalho!B2:B15)</f>
         <v>42</v>
@@ -694,6 +700,10 @@
       <c r="B2" s="3">
         <f>A2/COUNTA(pacotes_trabalho!A2:A15)</f>
         <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <f>8*A2</f>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -706,7 +716,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,8 +739,8 @@
         <v>294000</v>
       </c>
       <c r="B2" s="4">
-        <f>A2/(duracao_trabalho!A2)</f>
-        <v>7000</v>
+        <f>A2/(duracao_trabalho!C2)</f>
+        <v>875</v>
       </c>
     </row>
   </sheetData>

--- a/pratica_01/custos.xlsx
+++ b/pratica_01/custos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\repo_01\pratica_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94B8452D-DEF4-4F25-A026-FF56164970FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9378D59D-F86C-490B-B507-67105E4679D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pacotes_trabalho" sheetId="2" r:id="rId1"/>
@@ -36,23 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Lista de Atividades</t>
   </si>
   <si>
-    <t>Duração (dias)</t>
-  </si>
-  <si>
     <t>Duração média das Atividades (dias)</t>
   </si>
   <si>
     <t>Total de Dias Trabalhados</t>
   </si>
   <si>
-    <t>Custo Execução</t>
-  </si>
-  <si>
     <t>Custo Total do Projeto</t>
   </si>
   <si>
@@ -102,6 +96,21 @@
   </si>
   <si>
     <t>Total de Horas Trabalhadas</t>
+  </si>
+  <si>
+    <t>Horas trabalhas por dia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custo Execução da Atividade </t>
+  </si>
+  <si>
+    <t>Duração da atividade (horas)</t>
+  </si>
+  <si>
+    <t>Duração da atividade (dias)</t>
+  </si>
+  <si>
+    <t>Valor Dia trabalhado</t>
   </si>
 </sst>
 </file>
@@ -467,57 +476,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F81E5749-C048-4539-B022-55C84EFEB0B1}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="64.42578125" customWidth="1"/>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
       </c>
       <c r="C2" s="4">
-        <f>7000*B2</f>
+        <f>B2*$E$2</f>
         <v>7000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="3">
+        <f>B2*$F$2</f>
+        <v>8</v>
+      </c>
+      <c r="E2" s="4">
+        <v>7000</v>
+      </c>
+      <c r="F2" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" s="3">
         <v>1</v>
       </c>
       <c r="C3" s="4">
-        <f t="shared" ref="C3:C15" si="0">7000*B3</f>
+        <f t="shared" ref="C3:C15" si="0">B3*$E$2</f>
         <v>7000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D15" si="1">B3*$F$2</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3">
         <v>5</v>
@@ -526,10 +560,14 @@
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="3">
         <v>3</v>
@@ -538,10 +576,14 @@
         <f t="shared" si="0"/>
         <v>21000</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="3">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3">
         <v>10</v>
@@ -550,10 +592,14 @@
         <f t="shared" si="0"/>
         <v>70000</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="3">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3">
         <v>5</v>
@@ -562,10 +608,14 @@
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -574,10 +624,14 @@
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="3">
         <v>2</v>
@@ -586,10 +640,14 @@
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="3">
         <v>5</v>
@@ -598,10 +656,14 @@
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="3">
         <v>5</v>
@@ -610,10 +672,14 @@
         <f t="shared" si="0"/>
         <v>35000</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B12" s="3">
         <v>1</v>
@@ -622,10 +688,14 @@
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
@@ -634,10 +704,14 @@
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3">
         <v>1</v>
@@ -646,10 +720,14 @@
         <f t="shared" si="0"/>
         <v>7000</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -657,6 +735,10 @@
       <c r="C15" s="4">
         <f t="shared" si="0"/>
         <v>7000</v>
+      </c>
+      <c r="D15" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -670,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3288DA-1361-4722-B311-75FB7D3C822F}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -683,13 +765,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -702,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="3">
-        <f>8*A2</f>
+        <f>A2*(pacotes_trabalho!$F$2)</f>
         <v>336</v>
       </c>
     </row>
@@ -716,7 +798,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,10 +809,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
